--- a/taenam/Movie_Data.xlsx
+++ b/taenam/Movie_Data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="477">
   <si>
     <t>movie_name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>abs_mean_score</t>
+  </si>
+  <si>
+    <t>actor_power</t>
   </si>
   <si>
     <t>극한직업</t>
@@ -1803,13 +1806,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T95"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1867,13 +1870,16 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2">
         <v>43488</v>
@@ -1885,31 +1891,31 @@
         <v>16265618</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O2">
         <v>9518</v>
@@ -1929,13 +1935,16 @@
       <c r="T2">
         <v>1.019999468295598</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>4539711.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
         <v>43579</v>
@@ -1947,31 +1956,31 @@
         <v>13934592</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O3">
         <v>26299</v>
@@ -1991,13 +2000,16 @@
       <c r="T3">
         <v>2.126920189108493</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>9367612.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>43790</v>
@@ -2009,31 +2021,31 @@
         <v>27495584</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O4">
         <v>20661</v>
@@ -2053,13 +2065,16 @@
       <c r="T4">
         <v>1.154460052023695</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>9751491.666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>43608</v>
@@ -2071,31 +2086,31 @@
         <v>25447554</v>
       </c>
       <c r="F5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O5">
         <v>6934</v>
@@ -2115,13 +2130,16 @@
       <c r="T5">
         <v>1.495437614965683</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>6752496.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>43615</v>
@@ -2133,31 +2151,31 @@
         <v>20626290</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O6">
         <v>10215</v>
@@ -2177,13 +2195,16 @@
       <c r="T6">
         <v>2.085190060202749</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>5109347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>43677</v>
@@ -2195,31 +2216,31 @@
         <v>9426011</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O7">
         <v>2198</v>
@@ -2239,13 +2260,16 @@
       <c r="T7">
         <v>1.486566767138561</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>5557060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>43648</v>
@@ -2257,31 +2281,31 @@
         <v>8021145</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O8">
         <v>7007</v>
@@ -2301,13 +2325,16 @@
       <c r="T8">
         <v>1.49624678058486</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>3854988.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>43818</v>
@@ -2319,31 +2346,31 @@
         <v>16505818</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O9">
         <v>13381</v>
@@ -2363,13 +2390,16 @@
       <c r="T9">
         <v>2.728460942938039</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>6686322.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>43530</v>
@@ -2381,31 +2411,31 @@
         <v>5802810</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O10">
         <v>10251</v>
@@ -2425,13 +2455,16 @@
       <c r="T10">
         <v>1.805129819941407</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>2364987.266666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>43740</v>
@@ -2443,31 +2476,31 @@
         <v>5247874</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N11" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O11">
         <v>10806</v>
@@ -2487,13 +2520,16 @@
       <c r="T11">
         <v>2.887496835031038</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>2051487.571428572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>43684</v>
@@ -2505,31 +2541,31 @@
         <v>4787538</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O12">
         <v>10006</v>
@@ -2549,13 +2585,16 @@
       <c r="T12">
         <v>4.122266331905124</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>4403158.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>43663</v>
@@ -2567,31 +2606,31 @@
         <v>4743264</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O13">
         <v>8290</v>
@@ -2611,13 +2650,16 @@
       <c r="T13">
         <v>2.200378672976034</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>4743184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
         <v>43719</v>
@@ -2629,31 +2671,31 @@
         <v>4573902</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K14" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O14">
         <v>1397</v>
@@ -2673,13 +2715,16 @@
       <c r="T14">
         <v>3.361685539129692</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>3943693.615384616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>43761</v>
@@ -2691,31 +2736,31 @@
         <v>3678156</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O15">
         <v>12706</v>
@@ -2735,13 +2780,16 @@
       <c r="T15">
         <v>4.649718868306937</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>2487030.666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <v>43691</v>
@@ -2753,31 +2801,31 @@
         <v>3657536</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N16" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O16">
         <v>2299</v>
@@ -2797,13 +2845,16 @@
       <c r="T16">
         <v>1.501779269978187</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>2211044.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
         <v>43636</v>
@@ -2815,31 +2866,31 @@
         <v>3400034</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N17" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O17">
         <v>5412</v>
@@ -2859,13 +2910,16 @@
       <c r="T17">
         <v>0.7491044769774449</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>1387533.666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2">
         <v>43544</v>
@@ -2877,31 +2931,31 @@
         <v>3389125</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O18">
         <v>602</v>
@@ -2921,13 +2975,16 @@
       <c r="T18">
         <v>2.680149094381132</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>3128711.153846154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
         <v>43600</v>
@@ -2939,31 +2996,31 @@
         <v>3364712</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N19" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O19">
         <v>1494</v>
@@ -2983,13 +3040,16 @@
       <c r="T19">
         <v>1.915145471053909</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>3666577.352941176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
         <v>43740</v>
@@ -3001,31 +3061,31 @@
         <v>2924563</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J20" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N20" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O20">
         <v>283</v>
@@ -3045,13 +3105,16 @@
       <c r="T20">
         <v>3.241911033126013</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>1676823.555555556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2">
         <v>43474</v>
@@ -3063,31 +3126,31 @@
         <v>2812877</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M21" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O21">
         <v>721</v>
@@ -3107,13 +3170,16 @@
       <c r="T21">
         <v>3.036532043786817</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>4535884.333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2">
         <v>43509</v>
@@ -3125,31 +3191,31 @@
         <v>2534748</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N22" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O22">
         <v>777</v>
@@ -3169,13 +3235,16 @@
       <c r="T22">
         <v>3.169466810660189</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>4155466.545454545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
         <v>43817</v>
@@ -3187,31 +3256,31 @@
         <v>6636958</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N23" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O23">
         <v>852</v>
@@ -3231,13 +3300,16 @@
       <c r="T23">
         <v>1.552520940404506</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>3433874.944444444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2">
         <v>43782</v>
@@ -3249,31 +3321,31 @@
         <v>2478964</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N24" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O24">
         <v>1759</v>
@@ -3293,13 +3365,16 @@
       <c r="T24">
         <v>3.649636525930146</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>3402995.692307692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2">
         <v>43768</v>
@@ -3311,31 +3386,31 @@
         <v>2409062</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O25">
         <v>6796</v>
@@ -3355,13 +3430,16 @@
       <c r="T25">
         <v>7.46380424845482</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>971695.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2">
         <v>43516</v>
@@ -3373,31 +3451,31 @@
         <v>2398519</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N26" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O26">
         <v>3087</v>
@@ -3417,13 +3495,16 @@
       <c r="T26">
         <v>3.68645652791919</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>1858135.555555556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2">
         <v>43719</v>
@@ -3435,31 +3516,31 @@
         <v>2229239</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O27">
         <v>5392</v>
@@ -3479,13 +3560,16 @@
       <c r="T27">
         <v>1.916013550673702</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>1546814.714285714</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2">
         <v>43776</v>
@@ -3497,31 +3581,31 @@
         <v>2157437</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O28">
         <v>4056</v>
@@ -3541,13 +3625,16 @@
       <c r="T28">
         <v>2.064164279227509</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>1301916.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2">
         <v>43501</v>
@@ -3559,31 +3646,31 @@
         <v>1952063</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M29" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N29" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O29">
         <v>8272</v>
@@ -3603,13 +3690,16 @@
       <c r="T29">
         <v>2.063935505566744</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>1035368.875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2">
         <v>43474</v>
@@ -3621,31 +3711,31 @@
         <v>1902828</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M30" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N30" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O30">
         <v>969</v>
@@ -3665,13 +3755,16 @@
       <c r="T30">
         <v>2.967896022472626</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>1452333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2">
         <v>43495</v>
@@ -3683,31 +3776,31 @@
         <v>1826912</v>
       </c>
       <c r="F31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M31" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O31">
         <v>579</v>
@@ -3727,13 +3820,16 @@
       <c r="T31">
         <v>2.232549306308279</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>2634373.083333333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2">
         <v>43698</v>
@@ -3745,31 +3841,31 @@
         <v>1804112</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J32" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N32" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O32">
         <v>1204</v>
@@ -3789,13 +3885,16 @@
       <c r="T32">
         <v>2.355167857235023</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>2371400.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33" s="2">
         <v>43468</v>
@@ -3807,31 +3906,31 @@
         <v>1754375</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N33" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O33">
         <v>2479</v>
@@ -3851,13 +3950,16 @@
       <c r="T33">
         <v>1.434645538338052</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>887440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2">
         <v>43594</v>
@@ -3869,31 +3971,31 @@
         <v>1629528</v>
       </c>
       <c r="F34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M34" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N34" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O34">
         <v>6916</v>
@@ -3913,13 +4015,16 @@
       <c r="T34">
         <v>1.515208993341571</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>1323232.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="2">
         <v>43677</v>
@@ -3931,31 +4036,31 @@
         <v>1611163</v>
       </c>
       <c r="F35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O35">
         <v>1899</v>
@@ -3975,13 +4080,16 @@
       <c r="T35">
         <v>1.680487615566511</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>2220003.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2">
         <v>43453</v>
@@ -3993,31 +4101,31 @@
         <v>1546297</v>
       </c>
       <c r="F36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N36" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O36">
         <v>11746</v>
@@ -4037,13 +4145,16 @@
       <c r="T36">
         <v>1.539631718464357</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>1200957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="2">
         <v>43495</v>
@@ -4055,31 +4166,31 @@
         <v>1507922</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I37" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J37" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M37" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N37" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O37">
         <v>1251</v>
@@ -4099,13 +4210,16 @@
       <c r="T37">
         <v>1.745459594124043</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>1506942</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2">
         <v>43586</v>
@@ -4117,31 +4231,31 @@
         <v>1478156</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K38" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N38" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O38">
         <v>116</v>
@@ -4161,13 +4275,16 @@
       <c r="T38">
         <v>3.391305472278186</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38">
+        <v>962215.8333333335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" s="2">
         <v>43551</v>
@@ -4179,31 +4296,31 @@
         <v>1475087</v>
       </c>
       <c r="F39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K39" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N39" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O39">
         <v>1068</v>
@@ -4223,13 +4340,16 @@
       <c r="T39">
         <v>0.9764143246122</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39">
+        <v>1611792.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2">
         <v>43755</v>
@@ -4241,31 +4361,31 @@
         <v>1444952</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M40" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N40" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O40">
         <v>2897</v>
@@ -4285,13 +4405,16 @@
       <c r="T40">
         <v>1.42861148839136</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>321805.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" s="2">
         <v>43705</v>
@@ -4303,31 +4426,31 @@
         <v>1245532</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N41" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O41">
         <v>713</v>
@@ -4347,13 +4470,16 @@
       <c r="T41">
         <v>1.990418110729575</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>752803.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2">
         <v>43740</v>
@@ -4365,31 +4491,31 @@
         <v>1240022</v>
       </c>
       <c r="F42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K42" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N42" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O42">
         <v>360</v>
@@ -4409,13 +4535,16 @@
       <c r="T42">
         <v>3.207364052056207</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>1741111.4375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2">
         <v>43803</v>
@@ -4427,31 +4556,31 @@
         <v>1208407</v>
       </c>
       <c r="F43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M43" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N43" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O43">
         <v>845</v>
@@ -4471,13 +4600,16 @@
       <c r="T43">
         <v>3.963045773991089</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>509427.8571428572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" s="2">
         <v>43558</v>
@@ -4489,31 +4621,31 @@
         <v>1197565</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G44" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J44" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K44" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N44" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O44">
         <v>808</v>
@@ -4533,13 +4665,16 @@
       <c r="T44">
         <v>2.73342567636599</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>898955.1428571428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="2">
         <v>43719</v>
@@ -4551,31 +4686,31 @@
         <v>1181960</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J45" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M45" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N45" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O45">
         <v>609</v>
@@ -4595,13 +4730,16 @@
       <c r="T45">
         <v>3.601736332681816</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>1891328.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C46" s="2">
         <v>43523</v>
@@ -4613,31 +4751,31 @@
         <v>1157949</v>
       </c>
       <c r="F46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N46" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O46">
         <v>1216</v>
@@ -4657,13 +4795,16 @@
       <c r="T46">
         <v>3.978758511684207</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46">
+        <v>294343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" s="2">
         <v>43733</v>
@@ -4675,31 +4816,31 @@
         <v>1140876</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G47" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N47" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O47">
         <v>1453</v>
@@ -4719,13 +4860,16 @@
       <c r="T47">
         <v>5.248431577652164</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="U47">
+        <v>1499331.111111111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="2">
         <v>43677</v>
@@ -4737,31 +4881,31 @@
         <v>1114949</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G48" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M48" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N48" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O48">
         <v>207</v>
@@ -4781,13 +4925,16 @@
       <c r="T48">
         <v>3.113461684624729</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="U48">
+        <v>1301238.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2">
         <v>43635</v>
@@ -4799,31 +4946,31 @@
         <v>1094404</v>
       </c>
       <c r="F49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N49" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O49">
         <v>1046</v>
@@ -4843,13 +4990,16 @@
       <c r="T49">
         <v>1.942045262407028</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49">
+        <v>1361083.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2">
         <v>43810</v>
@@ -4861,31 +5011,31 @@
         <v>1054963</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I50" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J50" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M50" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N50" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O50">
         <v>272</v>
@@ -4905,13 +5055,16 @@
       <c r="T50">
         <v>1.729321033210749</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50">
+        <v>1483482.583333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2">
         <v>43642</v>
@@ -4923,31 +5076,31 @@
         <v>1004365</v>
       </c>
       <c r="F51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K51" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N51" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O51">
         <v>2188</v>
@@ -4967,13 +5120,16 @@
       <c r="T51">
         <v>2.221333982617323</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51">
+        <v>969446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="2">
         <v>43852</v>
@@ -4985,31 +5141,31 @@
         <v>4750345</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J52" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M52" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N52" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O52">
         <v>2895</v>
@@ -5029,13 +5185,16 @@
       <c r="T52">
         <v>3.707201996385261</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="U52">
+        <v>2917515.461538461</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2">
         <v>44048</v>
@@ -5047,31 +5206,31 @@
         <v>4357803</v>
       </c>
       <c r="F53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G53" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J53" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L53" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N53" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O53">
         <v>5709</v>
@@ -5091,13 +5250,16 @@
       <c r="T53">
         <v>1.559252582107844</v>
       </c>
-    </row>
-    <row r="54" spans="1:20">
+      <c r="U53">
+        <v>4022159.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2">
         <v>44027</v>
@@ -5109,31 +5271,31 @@
         <v>3812250</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G54" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I54" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J54" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M54" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N54" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O54">
         <v>17674</v>
@@ -5153,13 +5315,16 @@
       <c r="T54">
         <v>1.708268097256259</v>
       </c>
-    </row>
-    <row r="55" spans="1:20">
+      <c r="U54">
+        <v>2779621.166666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" s="2">
         <v>43852</v>
@@ -5171,31 +5336,31 @@
         <v>2406232</v>
       </c>
       <c r="F55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J55" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N55" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O55">
         <v>929</v>
@@ -5215,13 +5380,16 @@
       <c r="T55">
         <v>2.772913127145048</v>
       </c>
-    </row>
-    <row r="56" spans="1:20">
+      <c r="U55">
+        <v>2059758.6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2">
         <v>44069</v>
@@ -5233,31 +5401,31 @@
         <v>1992214</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G56" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J56" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K56" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N56" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O56">
         <v>6537</v>
@@ -5277,13 +5445,16 @@
       <c r="T56">
         <v>3.542497853403245</v>
       </c>
-    </row>
-    <row r="57" spans="1:20">
+      <c r="U56">
+        <v>810257.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2">
         <v>44006</v>
@@ -5295,31 +5466,31 @@
         <v>1903992</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G57" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I57" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M57" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N57" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O57">
         <v>4845</v>
@@ -5339,13 +5510,16 @@
       <c r="T57">
         <v>1.57889881638022</v>
       </c>
-    </row>
-    <row r="58" spans="1:20">
+      <c r="U57">
+        <v>1716927.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2">
         <v>44041</v>
@@ -5357,31 +5531,31 @@
         <v>1791533</v>
       </c>
       <c r="F58" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G58" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J58" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M58" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N58" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O58">
         <v>6156</v>
@@ -5401,13 +5575,16 @@
       <c r="T58">
         <v>5.980745428972348</v>
       </c>
-    </row>
-    <row r="59" spans="1:20">
+      <c r="U58">
+        <v>1804828.571428572</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2">
         <v>44103</v>
@@ -5419,31 +5596,31 @@
         <v>1719521</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G59" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K59" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N59" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O59">
         <v>897</v>
@@ -5463,13 +5640,16 @@
       <c r="T59">
         <v>3.298125805537553</v>
       </c>
-    </row>
-    <row r="60" spans="1:20">
+      <c r="U59">
+        <v>1310044.857142857</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2">
         <v>43838</v>
@@ -5481,31 +5661,31 @@
         <v>1607082</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K60" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L60" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N60" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O60">
         <v>930</v>
@@ -5525,13 +5705,16 @@
       <c r="T60">
         <v>1.699926235003146</v>
       </c>
-    </row>
-    <row r="61" spans="1:20">
+      <c r="U60">
+        <v>5669986.181818183</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2">
         <v>44125</v>
@@ -5543,31 +5726,31 @@
         <v>1571286</v>
       </c>
       <c r="F61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K61" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M61" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N61" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O61">
         <v>3404</v>
@@ -5587,13 +5770,16 @@
       <c r="T61">
         <v>1.636186117162112</v>
       </c>
-    </row>
-    <row r="62" spans="1:20">
+      <c r="U61">
+        <v>1167710.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2">
         <v>43873</v>
@@ -5605,31 +5791,31 @@
         <v>1538038</v>
       </c>
       <c r="F62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G62" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K62" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M62" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N62" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O62">
         <v>503</v>
@@ -5649,13 +5835,16 @@
       <c r="T62">
         <v>2.758695675047154</v>
       </c>
-    </row>
-    <row r="63" spans="1:20">
+      <c r="U62">
+        <v>1370035.272727273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2">
         <v>44139</v>
@@ -5667,31 +5856,31 @@
         <v>1523514</v>
       </c>
       <c r="F63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J63" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N63" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O63">
         <v>4159</v>
@@ -5711,13 +5900,16 @@
       <c r="T63">
         <v>1.831082776127177</v>
       </c>
-    </row>
-    <row r="64" spans="1:20">
+      <c r="U63">
+        <v>2508719.666666666</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2">
         <v>43866</v>
@@ -5729,31 +5921,31 @@
         <v>1270835</v>
       </c>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J64" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K64" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M64" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O64">
         <v>995</v>
@@ -5773,13 +5965,16 @@
       <c r="T64">
         <v>2.281473965137658</v>
       </c>
-    </row>
-    <row r="65" spans="1:20">
+      <c r="U64">
+        <v>4503893.181818182</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2">
         <v>44055</v>
@@ -5791,31 +5986,31 @@
         <v>1228968</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H65" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I65" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K65" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M65" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N65" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O65">
         <v>1634</v>
@@ -5835,13 +6030,16 @@
       <c r="T65">
         <v>1.730220648166227</v>
       </c>
-    </row>
-    <row r="66" spans="1:20">
+      <c r="U65">
+        <v>1422478</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2">
         <v>43845</v>
@@ -5853,31 +6051,31 @@
         <v>1209689</v>
       </c>
       <c r="F66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I66" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K66" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M66" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N66" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O66">
         <v>631</v>
@@ -5897,13 +6095,16 @@
       <c r="T66">
         <v>1.677684686784238</v>
       </c>
-    </row>
-    <row r="67" spans="1:20">
+      <c r="U66">
+        <v>1138358.833333333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2">
         <v>43825</v>
@@ -5915,31 +6116,31 @@
         <v>1035024</v>
       </c>
       <c r="F67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L67" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M67" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N67" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O67">
         <v>2343</v>
@@ -5959,13 +6160,16 @@
       <c r="T67">
         <v>1.560421424872525</v>
       </c>
-    </row>
-    <row r="68" spans="1:20">
+      <c r="U67">
+        <v>1495565.333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2">
         <v>43992</v>
@@ -5977,31 +6181,31 @@
         <v>894025</v>
       </c>
       <c r="F68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I68" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J68" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K68" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L68" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M68" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N68" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O68">
         <v>459</v>
@@ -6021,13 +6225,16 @@
       <c r="T68">
         <v>2.871240521618181</v>
       </c>
-    </row>
-    <row r="69" spans="1:20">
+      <c r="U68">
+        <v>731062.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2">
         <v>43880</v>
@@ -6039,31 +6246,31 @@
         <v>877017</v>
       </c>
       <c r="F69" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I69" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J69" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M69" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N69" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O69">
         <v>1321</v>
@@ -6083,13 +6290,16 @@
       <c r="T69">
         <v>2.188710325750777</v>
       </c>
-    </row>
-    <row r="70" spans="1:20">
+      <c r="U69">
+        <v>438525</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2">
         <v>43873</v>
@@ -6101,31 +6311,31 @@
         <v>864782</v>
       </c>
       <c r="F70" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M70" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N70" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O70">
         <v>1043</v>
@@ -6145,13 +6355,16 @@
       <c r="T70">
         <v>3.934721886381938</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="U70">
+        <v>683652.3636363636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2">
         <v>43830</v>
@@ -6163,31 +6376,31 @@
         <v>824836</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G71" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I71" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K71" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M71" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N71" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O71">
         <v>1879</v>
@@ -6207,13 +6420,16 @@
       <c r="T71">
         <v>7.345349417815754</v>
       </c>
-    </row>
-    <row r="72" spans="1:20">
+      <c r="U71">
+        <v>1381209.857142857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2">
         <v>43880</v>
@@ -6225,31 +6441,31 @@
         <v>628977</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L72" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M72" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N72" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O72">
         <v>1209</v>
@@ -6269,13 +6485,16 @@
       <c r="T72">
         <v>2.452441206462269</v>
       </c>
-    </row>
-    <row r="73" spans="1:20">
+      <c r="U72">
+        <v>1553735.285714286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2">
         <v>43852</v>
@@ -6287,31 +6506,31 @@
         <v>603203</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G73" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I73" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J73" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M73" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N73" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O73">
         <v>658</v>
@@ -6331,13 +6550,16 @@
       <c r="T73">
         <v>1.922293356257506</v>
       </c>
-    </row>
-    <row r="74" spans="1:20">
+      <c r="U73">
+        <v>1911721.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C74" s="2">
         <v>43887</v>
@@ -6349,31 +6571,31 @@
         <v>575043</v>
       </c>
       <c r="F74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K74" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M74" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N74" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O74">
         <v>1249</v>
@@ -6393,13 +6615,16 @@
       <c r="T74">
         <v>4.553492630618306</v>
       </c>
-    </row>
-    <row r="75" spans="1:20">
+      <c r="U74">
+        <v>522310.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2">
         <v>43845</v>
@@ -6411,31 +6636,31 @@
         <v>547775</v>
       </c>
       <c r="F75" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J75" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K75" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M75" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N75" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O75">
         <v>412</v>
@@ -6455,13 +6680,16 @@
       <c r="T75">
         <v>1.179451917654832</v>
       </c>
-    </row>
-    <row r="76" spans="1:20">
+      <c r="U75">
+        <v>2807784.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C76" s="2">
         <v>44103</v>
@@ -6473,31 +6701,31 @@
         <v>537470</v>
       </c>
       <c r="F76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K76" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M76" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N76" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O76">
         <v>758</v>
@@ -6517,13 +6745,16 @@
       <c r="T76">
         <v>1.9232118753541</v>
       </c>
-    </row>
-    <row r="77" spans="1:20">
+      <c r="U76">
+        <v>2242681.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2">
         <v>43986</v>
@@ -6535,31 +6766,31 @@
         <v>532045</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G77" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I77" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J77" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K77" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M77" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N77" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O77">
         <v>866</v>
@@ -6579,13 +6810,16 @@
       <c r="T77">
         <v>1.919014061286531</v>
       </c>
-    </row>
-    <row r="78" spans="1:20">
+      <c r="U77">
+        <v>1232272.444444444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C78" s="2">
         <v>43838</v>
@@ -6597,31 +6831,31 @@
         <v>507265</v>
       </c>
       <c r="F78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G78" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M78" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N78" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O78">
         <v>4501</v>
@@ -6641,13 +6875,16 @@
       <c r="T78">
         <v>1.928785539352676</v>
       </c>
-    </row>
-    <row r="79" spans="1:20">
+      <c r="U78">
+        <v>365816</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C79" s="2">
         <v>43852</v>
@@ -6659,31 +6896,31 @@
         <v>450932</v>
       </c>
       <c r="F79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J79" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L79" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M79" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N79" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O79">
         <v>63</v>
@@ -6703,13 +6940,16 @@
       <c r="T79">
         <v>0.4444444444444443</v>
       </c>
-    </row>
-    <row r="80" spans="1:20">
+      <c r="U79">
+        <v>3288345</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C80" s="2">
         <v>44160</v>
@@ -6721,31 +6961,31 @@
         <v>424764</v>
       </c>
       <c r="F80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I80" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J80" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K80" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N80" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O80">
         <v>479</v>
@@ -6765,13 +7005,16 @@
       <c r="T80">
         <v>4.239172287762028</v>
       </c>
-    </row>
-    <row r="81" spans="1:20">
+      <c r="U80">
+        <v>930886</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C81" s="2">
         <v>43999</v>
@@ -6783,31 +7026,31 @@
         <v>418084</v>
       </c>
       <c r="F81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G81" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K81" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N81" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O81">
         <v>200</v>
@@ -6827,13 +7070,16 @@
       <c r="T81">
         <v>2.409830681668774</v>
       </c>
-    </row>
-    <row r="82" spans="1:20">
+      <c r="U81">
+        <v>3584812.461538461</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2">
         <v>44119</v>
@@ -6845,31 +7091,31 @@
         <v>403424</v>
       </c>
       <c r="F82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J82" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K82" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M82" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N82" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O82">
         <v>682</v>
@@ -6889,13 +7135,16 @@
       <c r="T82">
         <v>2.586645317083424</v>
       </c>
-    </row>
-    <row r="83" spans="1:20">
+      <c r="U82">
+        <v>905402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C83" s="2">
         <v>43866</v>
@@ -6907,31 +7156,31 @@
         <v>402035</v>
       </c>
       <c r="F83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J83" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L83" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M83" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N83" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O83">
         <v>2292</v>
@@ -6951,13 +7200,16 @@
       <c r="T83">
         <v>1.701160392250685</v>
       </c>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="U83">
+        <v>248345.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C84" s="2">
         <v>44188</v>
@@ -6969,31 +7221,31 @@
         <v>390986</v>
       </c>
       <c r="F84" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H84" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I84" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J84" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M84" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N84" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O84">
         <v>4195</v>
@@ -7013,13 +7265,16 @@
       <c r="T84">
         <v>1.689889789477428</v>
       </c>
-    </row>
-    <row r="85" spans="1:20">
+      <c r="U84">
+        <v>546897</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2">
         <v>44076</v>
@@ -7031,31 +7286,31 @@
         <v>351730</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G85" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J85" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M85" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N85" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O85">
         <v>397</v>
@@ -7075,13 +7330,16 @@
       <c r="T85">
         <v>2.965916494559406</v>
       </c>
-    </row>
-    <row r="86" spans="1:20">
+      <c r="U85">
+        <v>2336608.875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C86" s="2">
         <v>44103</v>
@@ -7093,31 +7351,31 @@
         <v>325869</v>
       </c>
       <c r="F86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K86" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M86" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N86" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O86">
         <v>345</v>
@@ -7137,13 +7395,16 @@
       <c r="T86">
         <v>2.915632122856644</v>
       </c>
-    </row>
-    <row r="87" spans="1:20">
+      <c r="U86">
+        <v>638380.7777777779</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C87" s="2">
         <v>43089</v>
@@ -7155,31 +7416,31 @@
         <v>306419</v>
       </c>
       <c r="F87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G87" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H87" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I87" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J87" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K87" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L87" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M87" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N87" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O87">
         <v>10374</v>
@@ -7199,13 +7460,16 @@
       <c r="T87">
         <v>3.073786249241286</v>
       </c>
-    </row>
-    <row r="88" spans="1:20">
+      <c r="U87">
+        <v>675389.6666666665</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C88" s="2">
         <v>44091</v>
@@ -7217,31 +7481,31 @@
         <v>236247</v>
       </c>
       <c r="F88" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G88" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H88" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J88" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K88" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L88" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M88" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N88" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O88">
         <v>9686</v>
@@ -7261,13 +7525,16 @@
       <c r="T88">
         <v>1.507462099170861</v>
       </c>
-    </row>
-    <row r="89" spans="1:20">
+      <c r="U88">
+        <v>157863.3333333334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C89" s="2">
         <v>44147</v>
@@ -7279,31 +7546,31 @@
         <v>233112</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J89" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K89" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M89" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N89" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O89">
         <v>298</v>
@@ -7323,13 +7590,16 @@
       <c r="T89">
         <v>3.17348598343968</v>
       </c>
-    </row>
-    <row r="90" spans="1:20">
+      <c r="U89">
+        <v>2423299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C90" s="2">
         <v>43818</v>
@@ -7341,31 +7611,31 @@
         <v>222234</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H90" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J90" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K90" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L90" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M90" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O90">
         <v>639</v>
@@ -7385,13 +7655,16 @@
       <c r="T90">
         <v>0.8635141047077131</v>
       </c>
-    </row>
-    <row r="91" spans="1:20">
+      <c r="U90">
+        <v>577864.1666666665</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C91" s="2">
         <v>43957</v>
@@ -7403,31 +7676,31 @@
         <v>217056</v>
       </c>
       <c r="F91" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G91" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I91" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J91" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N91" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O91">
         <v>207</v>
@@ -7447,13 +7720,16 @@
       <c r="T91">
         <v>0.7915088547931418</v>
       </c>
-    </row>
-    <row r="92" spans="1:20">
+      <c r="U91">
+        <v>82322.16666666669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" s="2">
         <v>44097</v>
@@ -7465,31 +7741,31 @@
         <v>190237</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G92" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I92" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K92" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L92" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M92" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N92" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O92">
         <v>531</v>
@@ -7509,13 +7785,16 @@
       <c r="T92">
         <v>3.028083608219023</v>
       </c>
-    </row>
-    <row r="93" spans="1:20">
+      <c r="U92">
+        <v>190237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" s="2">
         <v>44175</v>
@@ -7527,31 +7806,31 @@
         <v>186647</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I93" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K93" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L93" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N93" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O93">
         <v>1132</v>
@@ -7571,13 +7850,16 @@
       <c r="T93">
         <v>2.439041721164006</v>
       </c>
-    </row>
-    <row r="94" spans="1:20">
+      <c r="U93">
+        <v>1335326.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94" s="2">
         <v>44000</v>
@@ -7589,31 +7871,31 @@
         <v>185802</v>
       </c>
       <c r="F94" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G94" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L94" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M94" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N94" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O94">
         <v>780</v>
@@ -7633,13 +7915,16 @@
       <c r="T94">
         <v>3.225536473019326</v>
       </c>
-    </row>
-    <row r="95" spans="1:20">
+      <c r="U94">
+        <v>1872178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2">
         <v>44020</v>
@@ -7651,31 +7936,31 @@
         <v>182026</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G95" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N95" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O95">
         <v>142</v>
@@ -7694,6 +7979,9 @@
       </c>
       <c r="T95">
         <v>4.372499135318116</v>
+      </c>
+      <c r="U95">
+        <v>523750.25</v>
       </c>
     </row>
   </sheetData>
